--- a/TestData/FieldMapping.xlsx
+++ b/TestData/FieldMapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -78,12 +78,6 @@
     <t>TestContact</t>
   </si>
   <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
     <t>Field_Mapping_TC001</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>Load #</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>PUN</t>
   </si>
 </sst>
 </file>
@@ -182,6 +182,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -229,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,24 +479,24 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -528,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>10</v>
@@ -548,7 +551,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -566,25 +569,25 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>17</v>
